--- a/Database/Database4.xlsx
+++ b/Database/Database4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2. O Project\O_WebServerEdition\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2. O Project\Olympia_24\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC74E6-34BD-471F-A3D8-91D3019AAD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD205BF-0DCD-4426-B74B-4818F14F4EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D1E2E1B2-ECC6-431A-9DB1-D10D877A3DFD}"/>
+    <workbookView xWindow="4425" yWindow="1980" windowWidth="23190" windowHeight="11295" xr2:uid="{D1E2E1B2-ECC6-431A-9DB1-D10D877A3DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -1430,6 +1430,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,30 +1488,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1820,7 +1820,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1859,10 +1859,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="110">
+      <c r="A2" s="118">
         <v>1</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="110">
         <v>1</v>
       </c>
       <c r="C2" s="15"/>
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="123">
+      <c r="A3" s="119"/>
+      <c r="B3" s="111">
         <v>2</v>
       </c>
       <c r="C3" s="18"/>
@@ -1887,8 +1887,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="123">
+      <c r="A4" s="119"/>
+      <c r="B4" s="111">
         <v>3</v>
       </c>
       <c r="C4" s="18"/>
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="123">
+      <c r="A5" s="119"/>
+      <c r="B5" s="111">
         <v>4</v>
       </c>
       <c r="C5" s="18"/>
@@ -1913,8 +1913,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="123">
+      <c r="A6" s="119"/>
+      <c r="B6" s="111">
         <v>5</v>
       </c>
       <c r="C6" s="18"/>
@@ -1926,8 +1926,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="123">
+      <c r="A7" s="119"/>
+      <c r="B7" s="111">
         <v>6</v>
       </c>
       <c r="C7" s="18"/>
@@ -1939,10 +1939,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="112">
+      <c r="A8" s="120">
         <v>2</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="112">
         <v>1</v>
       </c>
       <c r="C8" s="22"/>
@@ -1954,8 +1954,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="112"/>
-      <c r="B9" s="123">
+      <c r="A9" s="120"/>
+      <c r="B9" s="111">
         <v>2</v>
       </c>
       <c r="C9" s="24"/>
@@ -1967,8 +1967,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="112"/>
-      <c r="B10" s="123">
+      <c r="A10" s="120"/>
+      <c r="B10" s="111">
         <v>3</v>
       </c>
       <c r="C10" s="24"/>
@@ -1980,8 +1980,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="112"/>
-      <c r="B11" s="123">
+      <c r="A11" s="120"/>
+      <c r="B11" s="111">
         <v>4</v>
       </c>
       <c r="C11" s="24"/>
@@ -1993,8 +1993,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="112"/>
-      <c r="B12" s="123">
+      <c r="A12" s="120"/>
+      <c r="B12" s="111">
         <v>5</v>
       </c>
       <c r="C12" s="24"/>
@@ -2006,8 +2006,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="123">
+      <c r="A13" s="120"/>
+      <c r="B13" s="111">
         <v>6</v>
       </c>
       <c r="C13" s="24"/>
@@ -2019,10 +2019,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="112">
+      <c r="A14" s="120">
         <v>3</v>
       </c>
-      <c r="B14" s="124">
+      <c r="B14" s="112">
         <v>1</v>
       </c>
       <c r="C14" s="22"/>
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="112"/>
-      <c r="B15" s="123">
+      <c r="A15" s="120"/>
+      <c r="B15" s="111">
         <v>2</v>
       </c>
       <c r="C15" s="24"/>
@@ -2047,8 +2047,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
-      <c r="B16" s="123">
+      <c r="A16" s="120"/>
+      <c r="B16" s="111">
         <v>3</v>
       </c>
       <c r="C16" s="24"/>
@@ -2060,8 +2060,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="112"/>
-      <c r="B17" s="123">
+      <c r="A17" s="120"/>
+      <c r="B17" s="111">
         <v>4</v>
       </c>
       <c r="C17" s="24"/>
@@ -2073,8 +2073,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="112"/>
-      <c r="B18" s="123">
+      <c r="A18" s="120"/>
+      <c r="B18" s="111">
         <v>5</v>
       </c>
       <c r="C18" s="24"/>
@@ -2086,8 +2086,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="112"/>
-      <c r="B19" s="123">
+      <c r="A19" s="120"/>
+      <c r="B19" s="111">
         <v>6</v>
       </c>
       <c r="C19" s="24"/>
@@ -2099,10 +2099,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="112">
+      <c r="A20" s="120">
         <v>4</v>
       </c>
-      <c r="B20" s="124">
+      <c r="B20" s="112">
         <v>1</v>
       </c>
       <c r="C20" s="26"/>
@@ -2114,8 +2114,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="123">
+      <c r="A21" s="120"/>
+      <c r="B21" s="111">
         <v>2</v>
       </c>
       <c r="C21" s="28"/>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="123">
+      <c r="A22" s="120"/>
+      <c r="B22" s="111">
         <v>3</v>
       </c>
       <c r="C22" s="28"/>
@@ -2140,8 +2140,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="123">
+      <c r="A23" s="120"/>
+      <c r="B23" s="111">
         <v>4</v>
       </c>
       <c r="C23" s="28"/>
@@ -2153,8 +2153,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="123">
+      <c r="A24" s="120"/>
+      <c r="B24" s="111">
         <v>5</v>
       </c>
       <c r="C24" s="28"/>
@@ -2166,8 +2166,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="125">
+      <c r="A25" s="121"/>
+      <c r="B25" s="113">
         <v>6</v>
       </c>
       <c r="C25" s="85"/>
@@ -2179,10 +2179,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114">
+      <c r="A26" s="122">
         <v>5</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="114">
         <v>1</v>
       </c>
       <c r="C26" s="107"/>
@@ -2194,8 +2194,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="115"/>
-      <c r="B27" s="127">
+      <c r="A27" s="123"/>
+      <c r="B27" s="115">
         <v>2</v>
       </c>
       <c r="C27" s="108"/>
@@ -2207,8 +2207,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="115"/>
-      <c r="B28" s="127">
+      <c r="A28" s="123"/>
+      <c r="B28" s="115">
         <v>3</v>
       </c>
       <c r="C28" s="108"/>
@@ -2220,8 +2220,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="115"/>
-      <c r="B29" s="127">
+      <c r="A29" s="123"/>
+      <c r="B29" s="115">
         <v>4</v>
       </c>
       <c r="C29" s="108"/>
@@ -2233,8 +2233,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115"/>
-      <c r="B30" s="127">
+      <c r="A30" s="123"/>
+      <c r="B30" s="115">
         <v>5</v>
       </c>
       <c r="C30" s="108"/>
@@ -2246,8 +2246,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="115"/>
-      <c r="B31" s="127">
+      <c r="A31" s="123"/>
+      <c r="B31" s="115">
         <v>6</v>
       </c>
       <c r="C31" s="108"/>
@@ -2259,8 +2259,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="115"/>
-      <c r="B32" s="128">
+      <c r="A32" s="123"/>
+      <c r="B32" s="116">
         <v>7</v>
       </c>
       <c r="C32" s="108"/>
@@ -2272,8 +2272,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="115"/>
-      <c r="B33" s="128">
+      <c r="A33" s="123"/>
+      <c r="B33" s="116">
         <v>8</v>
       </c>
       <c r="C33" s="108"/>
@@ -2285,8 +2285,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="115"/>
-      <c r="B34" s="128">
+      <c r="A34" s="123"/>
+      <c r="B34" s="116">
         <v>9</v>
       </c>
       <c r="C34" s="108"/>
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115"/>
-      <c r="B35" s="128">
+      <c r="A35" s="123"/>
+      <c r="B35" s="116">
         <v>10</v>
       </c>
       <c r="C35" s="108"/>
@@ -2311,8 +2311,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115"/>
-      <c r="B36" s="128">
+      <c r="A36" s="123"/>
+      <c r="B36" s="116">
         <v>11</v>
       </c>
       <c r="C36" s="108"/>
@@ -2324,8 +2324,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="72" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="129">
+      <c r="A37" s="124"/>
+      <c r="B37" s="117">
         <v>12</v>
       </c>
       <c r="C37" s="109"/>
@@ -2356,7 +2356,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2687,7 +2687,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="117">
+      <c r="A2" s="125">
         <v>1</v>
       </c>
       <c r="B2" s="63">
@@ -2699,7 +2699,7 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="61">
         <v>20</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="62">
         <v>20</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="63">
         <v>30</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="61">
         <v>30</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="118"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="64">
         <v>30</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="119">
+      <c r="A8" s="127">
         <v>2</v>
       </c>
       <c r="B8" s="61">
@@ -2761,7 +2761,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="119"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="61">
         <v>20</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="61">
         <v>20</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="61">
         <v>30</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="119"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="61">
         <v>30</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="64">
         <v>30</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="119">
+      <c r="A14" s="127">
         <v>3</v>
       </c>
       <c r="B14" s="61">
@@ -2823,7 +2823,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="119"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="61">
         <v>20</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="119"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="61">
         <v>20</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="119"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="61">
         <v>30</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="119"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="61">
         <v>30</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="120"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="64">
         <v>30</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="119">
+      <c r="A20" s="127">
         <v>4</v>
       </c>
       <c r="B20" s="61">
@@ -2885,7 +2885,7 @@
       <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="61">
         <v>20</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="61">
         <v>20</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="61">
         <v>30</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="61">
         <v>30</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="65">
         <v>30</v>
       </c>

--- a/Database/Database4.xlsx
+++ b/Database/Database4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2. O Project\Olympia_24\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. O Project\O_WebServerEdition\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD205BF-0DCD-4426-B74B-4818F14F4EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8B3CC-F6FE-4A8A-BEC7-6734C24AC4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1980" windowWidth="23190" windowHeight="11295" xr2:uid="{D1E2E1B2-ECC6-431A-9DB1-D10D877A3DFD}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{D1E2E1B2-ECC6-431A-9DB1-D10D877A3DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Acceleration" sheetId="3" r:id="rId3"/>
     <sheet name="Finish" sheetId="4" r:id="rId4"/>
     <sheet name="Sub Finish" sheetId="5" r:id="rId5"/>
+    <sheet name="Match Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Match Log" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>STT</t>
   </si>
@@ -118,16 +120,38 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>Tên thí sinh</t>
+  </si>
+  <si>
+    <t>Điểm KĐ</t>
+  </si>
+  <si>
+    <t>Điểm VCNV</t>
+  </si>
+  <si>
+    <t>Điểm TT</t>
+  </si>
+  <si>
+    <t>Điểm VĐ</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts/>
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,8 +176,19 @@
       <name val="Montserrat"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -1099,11 +1134,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,6 +1550,84 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,47 +1957,46 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="36" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="72" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="72" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s" s="5">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" t="s" s="70">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="118">
         <v>1</v>
       </c>
@@ -1869,11 +2007,9 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="119"/>
       <c r="B3" s="111">
         <v>2</v>
@@ -1882,11 +2018,9 @@
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="119"/>
       <c r="B4" s="111">
         <v>3</v>
@@ -1895,11 +2029,9 @@
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="119"/>
       <c r="B5" s="111">
         <v>4</v>
@@ -1908,11 +2040,9 @@
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="119"/>
       <c r="B6" s="111">
         <v>5</v>
@@ -1921,11 +2051,9 @@
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="119"/>
       <c r="B7" s="111">
         <v>6</v>
@@ -1934,11 +2062,9 @@
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="120">
         <v>2</v>
       </c>
@@ -1949,11 +2075,9 @@
       <c r="D8" s="23"/>
       <c r="E8" s="22"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="120"/>
       <c r="B9" s="111">
         <v>2</v>
@@ -1962,11 +2086,9 @@
       <c r="D9" s="25"/>
       <c r="E9" s="24"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="120"/>
       <c r="B10" s="111">
         <v>3</v>
@@ -1975,11 +2097,9 @@
       <c r="D10" s="25"/>
       <c r="E10" s="24"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="120"/>
       <c r="B11" s="111">
         <v>4</v>
@@ -1988,11 +2108,9 @@
       <c r="D11" s="25"/>
       <c r="E11" s="24"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="120"/>
       <c r="B12" s="111">
         <v>5</v>
@@ -2001,11 +2119,9 @@
       <c r="D12" s="25"/>
       <c r="E12" s="24"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="120"/>
       <c r="B13" s="111">
         <v>6</v>
@@ -2014,11 +2130,9 @@
       <c r="D13" s="25"/>
       <c r="E13" s="24"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="120">
         <v>3</v>
       </c>
@@ -2029,11 +2143,9 @@
       <c r="D14" s="23"/>
       <c r="E14" s="22"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="120"/>
       <c r="B15" s="111">
         <v>2</v>
@@ -2042,11 +2154,9 @@
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
       <c r="B16" s="111">
         <v>3</v>
@@ -2055,11 +2165,9 @@
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="120"/>
       <c r="B17" s="111">
         <v>4</v>
@@ -2068,11 +2176,9 @@
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="120"/>
       <c r="B18" s="111">
         <v>5</v>
@@ -2081,11 +2187,9 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="120"/>
       <c r="B19" s="111">
         <v>6</v>
@@ -2094,11 +2198,9 @@
       <c r="D19" s="25"/>
       <c r="E19" s="24"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="120">
         <v>4</v>
       </c>
@@ -2109,11 +2211,9 @@
       <c r="D20" s="27"/>
       <c r="E20" s="26"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="120"/>
       <c r="B21" s="111">
         <v>2</v>
@@ -2122,11 +2222,9 @@
       <c r="D21" s="19"/>
       <c r="E21" s="28"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="120"/>
       <c r="B22" s="111">
         <v>3</v>
@@ -2135,11 +2233,9 @@
       <c r="D22" s="19"/>
       <c r="E22" s="28"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="120"/>
       <c r="B23" s="111">
         <v>4</v>
@@ -2148,11 +2244,9 @@
       <c r="D23" s="19"/>
       <c r="E23" s="28"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="120"/>
       <c r="B24" s="111">
         <v>5</v>
@@ -2161,11 +2255,9 @@
       <c r="D24" s="19"/>
       <c r="E24" s="28"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="121"/>
       <c r="B25" s="113">
         <v>6</v>
@@ -2174,11 +2266,9 @@
       <c r="D25" s="86"/>
       <c r="E25" s="85"/>
       <c r="F25" s="87"/>
-      <c r="G25" s="71" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="71"/>
+    </row>
+    <row r="26" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="122">
         <v>5</v>
       </c>
@@ -2189,11 +2279,9 @@
       <c r="D26" s="104"/>
       <c r="E26" s="107"/>
       <c r="F26" s="104"/>
-      <c r="G26" s="88" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="88"/>
+    </row>
+    <row r="27" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123"/>
       <c r="B27" s="115">
         <v>2</v>
@@ -2202,11 +2290,9 @@
       <c r="D27" s="105"/>
       <c r="E27" s="108"/>
       <c r="F27" s="105"/>
-      <c r="G27" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="89"/>
+    </row>
+    <row r="28" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123"/>
       <c r="B28" s="115">
         <v>3</v>
@@ -2215,11 +2301,9 @@
       <c r="D28" s="105"/>
       <c r="E28" s="108"/>
       <c r="F28" s="105"/>
-      <c r="G28" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="89"/>
+    </row>
+    <row r="29" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123"/>
       <c r="B29" s="115">
         <v>4</v>
@@ -2228,11 +2312,9 @@
       <c r="D29" s="105"/>
       <c r="E29" s="108"/>
       <c r="F29" s="105"/>
-      <c r="G29" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="89"/>
+    </row>
+    <row r="30" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="123"/>
       <c r="B30" s="115">
         <v>5</v>
@@ -2241,11 +2323,9 @@
       <c r="D30" s="105"/>
       <c r="E30" s="108"/>
       <c r="F30" s="105"/>
-      <c r="G30" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="89"/>
+    </row>
+    <row r="31" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123"/>
       <c r="B31" s="115">
         <v>6</v>
@@ -2254,11 +2334,9 @@
       <c r="D31" s="105"/>
       <c r="E31" s="108"/>
       <c r="F31" s="105"/>
-      <c r="G31" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="89"/>
+    </row>
+    <row r="32" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123"/>
       <c r="B32" s="116">
         <v>7</v>
@@ -2267,11 +2345,9 @@
       <c r="D32" s="105"/>
       <c r="E32" s="108"/>
       <c r="F32" s="105"/>
-      <c r="G32" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="89"/>
+    </row>
+    <row r="33" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
       <c r="B33" s="116">
         <v>8</v>
@@ -2280,11 +2356,9 @@
       <c r="D33" s="105"/>
       <c r="E33" s="108"/>
       <c r="F33" s="105"/>
-      <c r="G33" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="89"/>
+    </row>
+    <row r="34" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123"/>
       <c r="B34" s="116">
         <v>9</v>
@@ -2293,11 +2367,9 @@
       <c r="D34" s="105"/>
       <c r="E34" s="108"/>
       <c r="F34" s="105"/>
-      <c r="G34" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="89"/>
+    </row>
+    <row r="35" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123"/>
       <c r="B35" s="116">
         <v>10</v>
@@ -2306,11 +2378,9 @@
       <c r="D35" s="105"/>
       <c r="E35" s="108"/>
       <c r="F35" s="105"/>
-      <c r="G35" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="89"/>
+    </row>
+    <row r="36" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123"/>
       <c r="B36" s="116">
         <v>11</v>
@@ -2319,11 +2389,9 @@
       <c r="D36" s="105"/>
       <c r="E36" s="108"/>
       <c r="F36" s="105"/>
-      <c r="G36" s="89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="72" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="89"/>
+    </row>
+    <row r="37" spans="1:7" s="72" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="124"/>
       <c r="B37" s="117">
         <v>12</v>
@@ -2332,9 +2400,7 @@
       <c r="D37" s="106"/>
       <c r="E37" s="109"/>
       <c r="F37" s="106"/>
-      <c r="G37" s="90" t="s">
-        <v>18</v>
-      </c>
+      <c r="G37" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2354,192 +2420,177 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="2" customWidth="1"/>
-    <col min="5" max="6" width="39.25" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="39.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="42">
         <v>7</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" t="s" s="43">
         <v>10</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" t="s" s="44">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" t="s" s="45">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" t="s" s="45">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" t="s" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" s="66">
         <f>LEN(SUBSTITUTE(D2," ",""))</f>
-        <v>0</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="37"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>2</v>
       </c>
       <c r="B3" s="67">
         <f>LEN(SUBSTITUTE(D3," ",""))</f>
-        <v>0</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="28"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>3</v>
       </c>
       <c r="B4" s="67">
         <f t="shared" ref="B4:B7" si="0">LEN(SUBSTITUTE(D4," ",""))</f>
-        <v>0</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="53"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>4</v>
       </c>
       <c r="B5" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="28"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>5</v>
       </c>
       <c r="B6" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="28"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="51">
         <v>8</v>
       </c>
       <c r="B7" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="69">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="44">
         <v>12</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" t="s" s="45">
         <v>13</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" t="s" s="45">
         <v>14</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" t="s" s="46">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <v>1</v>
       </c>
       <c r="B11" s="93"/>
-      <c r="C11" s="94" t="str">
+      <c r="C11" s="94">
         <f>IF(AND(B2 + B11 - 1 &lt;= 18, B11 &gt; 0), "Hợp lệ", "Không hợp lệ")</f>
-        <v>Không hợp lệ</v>
       </c>
       <c r="D11" s="95">
         <f>IF(INT((18-B2)/2 + 1) &gt; 0, INT((18-B2)/2 + 1), "undefined")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <v>2</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="98" t="str">
+      <c r="C12" s="98">
         <f>IF(AND(B3 + B12 - 1 &lt;= 18, B12 &gt; 0), "Hợp lệ", "Không hợp lệ")</f>
-        <v>Không hợp lệ</v>
       </c>
       <c r="D12" s="99">
         <f t="shared" ref="D12:D14" si="1">IF(INT((18-B3)/2 + 1) &gt; 0, INT((18-B3)/2 + 1), "undefined")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="96">
         <v>3</v>
       </c>
       <c r="B13" s="97"/>
-      <c r="C13" s="98" t="str">
+      <c r="C13" s="98">
         <f>IF(AND(B4 + B13 - 1 &lt;= 18, B13 &gt; 0), "Hợp lệ", "Không hợp lệ")</f>
-        <v>Không hợp lệ</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100">
         <v>4</v>
       </c>
       <c r="B14" s="101"/>
-      <c r="C14" s="102" t="str">
+      <c r="C14" s="102">
         <f>IF(AND(B5 + B14 - 1 &lt;= 18, B14 &gt; 0), "Hợp lệ", "Không hợp lệ")</f>
-        <v>Không hợp lệ</v>
       </c>
       <c r="D14" s="103">
         <f t="shared" si="1"/>
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2553,41 +2604,40 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="34" style="3" customWidth="1"/>
-    <col min="3" max="4" width="35.125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="35.25" style="3" customWidth="1"/>
+    <col min="3" max="4" width="35.140625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="35.28515625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" t="s" s="73">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" t="s" s="74">
         <v>2</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" t="s" s="75">
         <v>3</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" t="s" s="75">
         <v>11</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" t="s" s="75">
         <v>4</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" t="s" s="84">
         <v>5</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" t="s" s="76">
         <v>17</v>
       </c>
       <c r="H1" s="72"/>
@@ -2651,42 +2701,41 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="87" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="33" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="29">
         <v>6</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" t="s" s="30">
         <v>9</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" t="s" s="30">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="30">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" t="s" s="30">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" t="s" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="125">
         <v>1</v>
       </c>
@@ -2698,7 +2747,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="125"/>
       <c r="B3" s="61">
         <v>20</v>
@@ -2708,7 +2757,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="125"/>
       <c r="B4" s="62">
         <v>20</v>
@@ -2718,7 +2767,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="125"/>
       <c r="B5" s="63">
         <v>30</v>
@@ -2728,7 +2777,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="125"/>
       <c r="B6" s="61">
         <v>30</v>
@@ -2738,7 +2787,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
       <c r="B7" s="64">
         <v>30</v>
@@ -2748,7 +2797,7 @@
       <c r="E7" s="35"/>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="127">
         <v>2</v>
       </c>
@@ -2760,7 +2809,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="127"/>
       <c r="B9" s="61">
         <v>20</v>
@@ -2770,7 +2819,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="127"/>
       <c r="B10" s="61">
         <v>20</v>
@@ -2780,7 +2829,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
       <c r="B11" s="61">
         <v>30</v>
@@ -2790,7 +2839,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="127"/>
       <c r="B12" s="61">
         <v>30</v>
@@ -2800,7 +2849,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="128"/>
       <c r="B13" s="64">
         <v>30</v>
@@ -2810,7 +2859,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="33"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="127">
         <v>3</v>
       </c>
@@ -2822,7 +2871,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="127"/>
       <c r="B15" s="61">
         <v>20</v>
@@ -2832,7 +2881,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="127"/>
       <c r="B16" s="61">
         <v>20</v>
@@ -2842,7 +2891,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="127"/>
       <c r="B17" s="61">
         <v>30</v>
@@ -2852,7 +2901,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="127"/>
       <c r="B18" s="61">
         <v>30</v>
@@ -2862,7 +2911,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="128"/>
       <c r="B19" s="64">
         <v>30</v>
@@ -2872,7 +2921,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="127">
         <v>4</v>
       </c>
@@ -2884,7 +2933,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="127"/>
       <c r="B21" s="61">
         <v>20</v>
@@ -2894,7 +2943,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="127"/>
       <c r="B22" s="61">
         <v>20</v>
@@ -2904,7 +2953,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="127"/>
       <c r="B23" s="61">
         <v>30</v>
@@ -2914,7 +2963,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="127"/>
       <c r="B24" s="61">
         <v>30</v>
@@ -2924,7 +2973,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="129"/>
       <c r="B25" s="65">
         <v>30</v>
@@ -2950,39 +2999,38 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="73" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="34.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="34.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="54">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" t="s" s="55">
         <v>2</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" t="s" s="56">
         <v>3</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" t="s" s="56">
         <v>4</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" t="s" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <v>1</v>
       </c>
@@ -2991,7 +3039,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>2</v>
       </c>
@@ -3000,7 +3048,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60">
         <v>3</v>
       </c>
@@ -3012,4 +3060,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFD0FCC-B270-458C-B0D4-39E837D007FC}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="130">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="131">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s" s="132">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s" s="133">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="133">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s" s="133">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s" s="134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="135">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138">
+        <v>0</v>
+      </c>
+      <c r="H2" s="139"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="140">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="141">
+        <v>25</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143">
+        <v>0</v>
+      </c>
+      <c r="H3" s="144"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="145">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="146">
+        <v>25</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="148">
+        <v>0</v>
+      </c>
+      <c r="H4" s="150"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="151">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="152">
+        <v>25</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154">
+        <v>0</v>
+      </c>
+      <c r="H5" s="155"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40F191D-6338-4DC0-9148-2657A7451678}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>